--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02AD74-7CCA-4E0B-B19D-6B3FD3A61F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB0B15-3AF6-4A1B-94B1-10DE75E37776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,36 @@
   </si>
   <si>
     <t>스테이지 일부 제작, 점프 오류 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.2.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 장애물 만들고 닿으면 피격되게 만들기
+2. 적 만들고 닿으면 피격되게 만들고 / 플레이어가
+밟으면 떨어지게 하고 / 장애물이나 벽, 땅 끝을
+인식해서 다른 방향으로 돌아가도록 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 플레이어의 체력이 0이 되거나 땅 아래로 떨어지면
+Death 메시지가 표시되고 몇초 후 부활시키기
+2. UI에 LIFE 추가, 패널 투명화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  스테이지의 적마다 번호를 붙이고 플레이어가 
+죽으면 원래 위치에서 부활하게 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,31 +525,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E848AE-9B30-498E-8AD1-2DF4F7F84262}">
   <dimension ref="A1:I1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="3" max="3" width="46.75" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
     <col min="8" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -531,12 +564,14 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,10 +583,14 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -570,19 +609,31 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>

--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB0B15-3AF6-4A1B-94B1-10DE75E37776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90930213-5A8F-4BAC-87D1-A701C6E0F480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,40 @@
   <si>
     <t xml:space="preserve">  스테이지의 적마다 번호를 붙이고 플레이어가 
 죽으면 원래 위치에서 부활하게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 하트 변경하는거 영상 봄.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 방식대로 일단 키 누르면 UI 하트 변경되게끔 설정
+단, 충돌했을때 하트닳게끔 설정은 안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 충돌했을때 하트 UI가 한칸씩 닳게하고 부활했을때
+다시 꽉 차게끔 설정
+2. 라이프도 죽으면 하나씩 닳게끔 설정, 라이프가 0
+이 되면 게임 오버씬으로 이동함.
+3. 게임 스테이지1 꾸미기
+4. 베타버전 빌드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 나가기 버튼도 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 빌드용량 줄이는법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +560,7 @@
   <dimension ref="A1:I1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,7 +617,7 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -604,8 +638,12 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -619,8 +657,12 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -640,27 +682,45 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>

--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90930213-5A8F-4BAC-87D1-A701C6E0F480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A402CD-E409-4CFC-BC24-E71484A421F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
+    <workbookView xWindow="3975" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t>유니티 빌드용량 줄이는법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 컨트롤러 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시, 사망 시 효과음 재생, 씬 전환 시 배경음 재생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 점프 해결시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E848AE-9B30-498E-8AD1-2DF4F7F84262}">
   <dimension ref="A1:I1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,7 +641,7 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -676,8 +700,12 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -691,8 +719,12 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -727,18 +759,30 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>

--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A402CD-E409-4CFC-BC24-E71484A421F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA1D76B-464B-4205-A928-942356F0D779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,69 @@
   </si>
   <si>
     <t>벽 점프 해결시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 물리치거나 코인을 얻을 경우 점수UI 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들이 서로 충돌하면 가만히 있는 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta 0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 업데이트 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0.0 첫째 둘째 셋째 자리
+첫째: 아예 다른 게임 수준
+둘째: 메이저 업데이트(없던 시스템 추가)
+셋째: 마이너 업데이트(버그 수정, 값 수정 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E848AE-9B30-498E-8AD1-2DF4F7F84262}">
   <dimension ref="A1:I1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,9 +655,11 @@
     <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="46.75" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="40.625" customWidth="1"/>
-    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="44.125" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -622,14 +687,19 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,7 +711,10 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>19</v>
+        <v>19.5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -649,7 +722,9 @@
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -662,6 +737,9 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -681,6 +759,9 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -699,6 +780,9 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -738,8 +822,15 @@
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -753,6 +844,9 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -768,6 +862,9 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -783,15 +880,27 @@
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>

--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA1D76B-464B-4205-A928-942356F0D779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF332E-E307-4C6F-AE3B-073CF044A3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
+    <workbookView xWindow="3975" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>0.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 얻을 경우 UI 변경, 코인 100개 이상 얻을 경우
+초기화 및 라이프 추가, 코인 아이템 애니메이션 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E848AE-9B30-498E-8AD1-2DF4F7F84262}">
   <dimension ref="A1:I1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -699,7 +708,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,7 +720,7 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -906,10 +915,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>

--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF332E-E307-4C6F-AE3B-073CF044A3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12099C28-3F80-4EAB-B8DC-DA111F4B7BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
+    <workbookView xWindow="5490" yWindow="4440" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>0.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전 아이템화, 색상 바꾸기 연구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E848AE-9B30-498E-8AD1-2DF4F7F84262}">
   <dimension ref="A1:I1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,7 +728,7 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -934,9 +942,15 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>

--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12099C28-3F80-4EAB-B8DC-DA111F4B7BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6994AA-5362-4705-98E4-355557C6B6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="4440" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
+    <workbookView xWindow="5490" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>동전 아이템화, 색상 바꾸기 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전 이펙트 만들기, 적 충돌 문제 연구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +672,7 @@
   <dimension ref="A1:I1012"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,7 +736,7 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -957,9 +965,15 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>

--- a/메모/플랫포머 게임개발일지.xlsx
+++ b/메모/플랫포머 게임개발일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12099C28-3F80-4EAB-B8DC-DA111F4B7BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BFB9D0-2394-44EF-BACA-A25890E7FA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="4440" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
+    <workbookView xWindow="3975" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{CC33B872-1803-4B20-86EF-3F9B83063E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>유니티 빌드용량 줄이는법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수 컨트롤러 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,7 +219,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동전 아이템화, 색상 바꾸기 연구</t>
+    <t>25.3.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하트 컨트롤러 합치기, 하트 아이템 먹으면 하트
+차는것 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하트 아이템 먹으면 정확한 위치에서 하트 차게하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전 아이템화, 색상 바꾸기 연구 -&gt; X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 컨트롤러 제작 V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E848AE-9B30-498E-8AD1-2DF4F7F84262}">
   <dimension ref="A1:I1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,14 +742,14 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -728,10 +765,10 @@
       </c>
       <c r="D3">
         <f>+SUM(B3:B9999)</f>
-        <v>22.5</v>
+        <v>29.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -740,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -755,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -777,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -799,13 +836,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -824,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -840,13 +877,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -862,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -871,16 +908,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -889,16 +926,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -907,16 +944,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -925,16 +962,16 @@
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>1.5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -943,13 +980,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>1.5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -957,35 +994,72 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.6</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
